--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnf-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnf-Tnfrsf1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Tnfrsf1b</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.349936666666667</v>
+        <v>5.429001</v>
       </c>
       <c r="H2">
-        <v>16.04981</v>
+        <v>16.287003</v>
       </c>
       <c r="I2">
-        <v>0.04148245374559899</v>
+        <v>0.04230716253661782</v>
       </c>
       <c r="J2">
-        <v>0.04148245374559899</v>
+        <v>0.04239440107683373</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.18077166666667</v>
+        <v>11.53121</v>
       </c>
       <c r="N2">
-        <v>33.542315</v>
+        <v>34.59363</v>
       </c>
       <c r="O2">
-        <v>0.0566654123397129</v>
+        <v>0.04670311854310271</v>
       </c>
       <c r="P2">
-        <v>0.05684167636225704</v>
+        <v>0.04697417460197403</v>
       </c>
       <c r="Q2">
-        <v>59.81642030112778</v>
+        <v>62.60295062120999</v>
       </c>
       <c r="R2">
-        <v>538.3477827101501</v>
+        <v>563.42655559089</v>
       </c>
       <c r="S2">
-        <v>0.002350620346357435</v>
+        <v>0.001975876427169976</v>
       </c>
       <c r="T2">
-        <v>0.002357932210519635</v>
+        <v>0.001991441998329303</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.349936666666667</v>
+        <v>5.429001</v>
       </c>
       <c r="H3">
-        <v>16.04981</v>
+        <v>16.287003</v>
       </c>
       <c r="I3">
-        <v>0.04148245374559899</v>
+        <v>0.04230716253661782</v>
       </c>
       <c r="J3">
-        <v>0.04148245374559899</v>
+        <v>0.04239440107683373</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>36.600522</v>
       </c>
       <c r="O3">
-        <v>0.06183185838481135</v>
+        <v>0.04941252241252041</v>
       </c>
       <c r="P3">
-        <v>0.06202419320830027</v>
+        <v>0.04969930333854504</v>
       </c>
       <c r="Q3">
-        <v>65.27015822231333</v>
+        <v>66.23475684617399</v>
       </c>
       <c r="R3">
-        <v>587.43142400082</v>
+        <v>596.1128116155659</v>
       </c>
       <c r="S3">
-        <v>0.002564937205452364</v>
+        <v>0.002090503617050772</v>
       </c>
       <c r="T3">
-        <v>0.002572915725871411</v>
+        <v>0.0021069721989735</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.349936666666667</v>
+        <v>5.429001</v>
       </c>
       <c r="H4">
-        <v>16.04981</v>
+        <v>16.287003</v>
       </c>
       <c r="I4">
-        <v>0.04148245374559899</v>
+        <v>0.04230716253661782</v>
       </c>
       <c r="J4">
-        <v>0.04148245374559899</v>
+        <v>0.04239440107683373</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.38991299999999</v>
+        <v>113.969907</v>
       </c>
       <c r="N4">
-        <v>253.169739</v>
+        <v>341.909721</v>
       </c>
       <c r="O4">
-        <v>0.4276976008475412</v>
+        <v>0.4615951038067463</v>
       </c>
       <c r="P4">
-        <v>0.4290280014648685</v>
+        <v>0.4642741144067919</v>
       </c>
       <c r="Q4">
-        <v>451.48068985551</v>
+        <v>618.7427390729069</v>
       </c>
       <c r="R4">
-        <v>4063.32620869959</v>
+        <v>5568.684651656163</v>
       </c>
       <c r="S4">
-        <v>0.01774194594426179</v>
+        <v>0.01952877908285899</v>
       </c>
       <c r="T4">
-        <v>0.01779713422633318</v>
+        <v>0.01968262301575332</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.349936666666667</v>
+        <v>5.429001</v>
       </c>
       <c r="H5">
-        <v>16.04981</v>
+        <v>16.287003</v>
       </c>
       <c r="I5">
-        <v>0.04148245374559899</v>
+        <v>0.04230716253661782</v>
       </c>
       <c r="J5">
-        <v>0.04148245374559899</v>
+        <v>0.04239440107683373</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8355735</v>
+        <v>4.2741545</v>
       </c>
       <c r="N5">
-        <v>3.671147</v>
+        <v>8.548309</v>
       </c>
       <c r="O5">
-        <v>0.009302893606838109</v>
+        <v>0.01731096253429049</v>
       </c>
       <c r="P5">
-        <v>0.006221220856469531</v>
+        <v>0.01160762138918714</v>
       </c>
       <c r="Q5">
-        <v>9.820201972011667</v>
+        <v>23.2043890546545</v>
       </c>
       <c r="R5">
-        <v>58.92121183207</v>
+        <v>139.226334327927</v>
       </c>
       <c r="S5">
-        <v>0.0003859068537458904</v>
+        <v>0.0007323777056035295</v>
       </c>
       <c r="T5">
-        <v>0.000258071506419653</v>
+        <v>0.0004920981567212337</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.349936666666667</v>
+        <v>5.429001</v>
       </c>
       <c r="H6">
-        <v>16.04981</v>
+        <v>16.287003</v>
       </c>
       <c r="I6">
-        <v>0.04148245374559899</v>
+        <v>0.04230716253661782</v>
       </c>
       <c r="J6">
-        <v>0.04148245374559899</v>
+        <v>0.04239440107683373</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>87.70567066666668</v>
+        <v>104.9290516666667</v>
       </c>
       <c r="N6">
-        <v>263.117012</v>
+        <v>314.787155</v>
       </c>
       <c r="O6">
-        <v>0.4445022348210966</v>
+        <v>0.4249782927033401</v>
       </c>
       <c r="P6">
-        <v>0.4458849081081047</v>
+        <v>0.4274447862635018</v>
       </c>
       <c r="Q6">
-        <v>469.2197833741912</v>
+        <v>569.6599264273849</v>
       </c>
       <c r="R6">
-        <v>4222.978050367721</v>
+        <v>5126.939337846465</v>
       </c>
       <c r="S6">
-        <v>0.01843904339578152</v>
+        <v>0.01797962570393455</v>
       </c>
       <c r="T6">
-        <v>0.01849640007645511</v>
+        <v>0.01812126570705636</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>4.08351</v>
       </c>
       <c r="I7">
-        <v>0.01055426915924182</v>
+        <v>0.01060733649339319</v>
       </c>
       <c r="J7">
-        <v>0.01055426915924182</v>
+        <v>0.01062920911485442</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.18077166666667</v>
+        <v>11.53121</v>
       </c>
       <c r="N7">
-        <v>33.542315</v>
+        <v>34.59363</v>
       </c>
       <c r="O7">
-        <v>0.0566654123397129</v>
+        <v>0.04670311854310271</v>
       </c>
       <c r="P7">
-        <v>0.05684167636225704</v>
+        <v>0.04697417460197403</v>
       </c>
       <c r="Q7">
-        <v>15.21893096951667</v>
+        <v>15.6959371157</v>
       </c>
       <c r="R7">
-        <v>136.97037872565</v>
+        <v>141.2634340413</v>
       </c>
       <c r="S7">
-        <v>0.0005980620138527528</v>
+        <v>0.0004953956936775214</v>
       </c>
       <c r="T7">
-        <v>0.0005999223517897742</v>
+        <v>0.0004992983248420655</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>4.08351</v>
       </c>
       <c r="I8">
-        <v>0.01055426915924182</v>
+        <v>0.01060733649339319</v>
       </c>
       <c r="J8">
-        <v>0.01055426915924182</v>
+        <v>0.01062920911485442</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>36.600522</v>
       </c>
       <c r="O8">
-        <v>0.06183185838481135</v>
+        <v>0.04941252241252041</v>
       </c>
       <c r="P8">
-        <v>0.06202419320830027</v>
+        <v>0.04969930333854504</v>
       </c>
       <c r="Q8">
         <v>16.60651084358</v>
@@ -948,10 +948,10 @@
         <v>149.45859759222</v>
       </c>
       <c r="S8">
-        <v>0.0006525900760094222</v>
+        <v>0.0005241352522169365</v>
       </c>
       <c r="T8">
-        <v>0.0006546200295052194</v>
+        <v>0.0005282642880479777</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>4.08351</v>
       </c>
       <c r="I9">
-        <v>0.01055426915924182</v>
+        <v>0.01060733649339319</v>
       </c>
       <c r="J9">
-        <v>0.01055426915924182</v>
+        <v>0.01062920911485442</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>84.38991299999999</v>
+        <v>113.969907</v>
       </c>
       <c r="N9">
-        <v>253.169739</v>
+        <v>341.909721</v>
       </c>
       <c r="O9">
-        <v>0.4276976008475412</v>
+        <v>0.4615951038067463</v>
       </c>
       <c r="P9">
-        <v>0.4290280014648685</v>
+        <v>0.4642741144067919</v>
       </c>
       <c r="Q9">
-        <v>114.86901787821</v>
+        <v>155.13241831119</v>
       </c>
       <c r="R9">
-        <v>1033.82116090389</v>
+        <v>1396.19176480071</v>
       </c>
       <c r="S9">
-        <v>0.004514035598106923</v>
+        <v>0.004896294589780916</v>
       </c>
       <c r="T9">
-        <v>0.004528077004311816</v>
+        <v>0.004934866648643637</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>4.08351</v>
       </c>
       <c r="I10">
-        <v>0.01055426915924182</v>
+        <v>0.01060733649339319</v>
       </c>
       <c r="J10">
-        <v>0.01055426915924182</v>
+        <v>0.01062920911485442</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.8355735</v>
+        <v>4.2741545</v>
       </c>
       <c r="N10">
-        <v>3.671147</v>
+        <v>8.548309</v>
       </c>
       <c r="O10">
-        <v>0.009302893606838109</v>
+        <v>0.01731096253429049</v>
       </c>
       <c r="P10">
-        <v>0.006221220856469531</v>
+        <v>0.01160762138918714</v>
       </c>
       <c r="Q10">
-        <v>2.498527580995</v>
+        <v>5.817850880765</v>
       </c>
       <c r="R10">
-        <v>14.99116548597</v>
+        <v>34.90710528459</v>
       </c>
       <c r="S10">
-        <v>9.818524308635936E-05</v>
+        <v>0.0001836232046257417</v>
       </c>
       <c r="T10">
-        <v>6.566043941826835E-05</v>
+        <v>0.0001233798350717271</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>4.08351</v>
       </c>
       <c r="I11">
-        <v>0.01055426915924182</v>
+        <v>0.01060733649339319</v>
       </c>
       <c r="J11">
-        <v>0.01055426915924182</v>
+        <v>0.01062920911485442</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>87.70567066666668</v>
+        <v>104.9290516666667</v>
       </c>
       <c r="N11">
-        <v>263.117012</v>
+        <v>314.787155</v>
       </c>
       <c r="O11">
-        <v>0.4445022348210966</v>
+        <v>0.4249782927033401</v>
       </c>
       <c r="P11">
-        <v>0.4458849081081047</v>
+        <v>0.4274447862635018</v>
       </c>
       <c r="Q11">
-        <v>119.3823277413467</v>
+        <v>142.8262772571167</v>
       </c>
       <c r="R11">
-        <v>1074.44094967212</v>
+        <v>1285.43649531405</v>
       </c>
       <c r="S11">
-        <v>0.004691396228186365</v>
+        <v>0.004507887753092071</v>
       </c>
       <c r="T11">
-        <v>0.004705989334216742</v>
+        <v>0.004543400018249014</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>44.98903266666667</v>
+        <v>63.64001366666667</v>
       </c>
       <c r="H12">
-        <v>134.967098</v>
+        <v>190.920041</v>
       </c>
       <c r="I12">
-        <v>0.3488369270391816</v>
+        <v>0.4959344089323702</v>
       </c>
       <c r="J12">
-        <v>0.3488369270391816</v>
+        <v>0.4969570394110899</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.18077166666667</v>
+        <v>11.53121</v>
       </c>
       <c r="N12">
-        <v>33.542315</v>
+        <v>34.59363</v>
       </c>
       <c r="O12">
-        <v>0.0566654123397129</v>
+        <v>0.04670311854310271</v>
       </c>
       <c r="P12">
-        <v>0.05684167636225704</v>
+        <v>0.04697417460197403</v>
       </c>
       <c r="Q12">
-        <v>503.0121017502079</v>
+        <v>733.8463619932033</v>
       </c>
       <c r="R12">
-        <v>4527.108915751871</v>
+        <v>6604.617257938829</v>
       </c>
       <c r="S12">
-        <v>0.01976698830999357</v>
+        <v>0.02316168348997206</v>
       </c>
       <c r="T12">
-        <v>0.01982847570996543</v>
+        <v>0.02334414673897663</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>44.98903266666667</v>
+        <v>63.64001366666667</v>
       </c>
       <c r="H13">
-        <v>134.967098</v>
+        <v>190.920041</v>
       </c>
       <c r="I13">
-        <v>0.3488369270391816</v>
+        <v>0.4959344089323702</v>
       </c>
       <c r="J13">
-        <v>0.3488369270391816</v>
+        <v>0.4969570394110899</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>36.600522</v>
       </c>
       <c r="O13">
-        <v>0.06183185838481135</v>
+        <v>0.04941252241252041</v>
       </c>
       <c r="P13">
-        <v>0.06202419320830027</v>
+        <v>0.04969930333854504</v>
       </c>
       <c r="Q13">
-        <v>548.8740266250173</v>
+        <v>776.4192400957113</v>
       </c>
       <c r="R13">
-        <v>4939.866239625157</v>
+        <v>6987.773160861401</v>
       </c>
       <c r="S13">
-        <v>0.02156923547207945</v>
+        <v>0.0245053700965108</v>
       </c>
       <c r="T13">
-        <v>0.02163632896086794</v>
+        <v>0.02469841864791704</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>44.98903266666667</v>
+        <v>63.64001366666667</v>
       </c>
       <c r="H14">
-        <v>134.967098</v>
+        <v>190.920041</v>
       </c>
       <c r="I14">
-        <v>0.3488369270391816</v>
+        <v>0.4959344089323702</v>
       </c>
       <c r="J14">
-        <v>0.3488369270391816</v>
+        <v>0.4969570394110899</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>84.38991299999999</v>
+        <v>113.969907</v>
       </c>
       <c r="N14">
-        <v>253.169739</v>
+        <v>341.909721</v>
       </c>
       <c r="O14">
-        <v>0.4276976008475412</v>
+        <v>0.4615951038067463</v>
       </c>
       <c r="P14">
-        <v>0.4290280014648685</v>
+        <v>0.4642741144067919</v>
       </c>
       <c r="Q14">
-        <v>3796.620552694159</v>
+        <v>7253.046439068728</v>
       </c>
       <c r="R14">
-        <v>34169.58497424742</v>
+        <v>65277.41795161856</v>
       </c>
       <c r="S14">
-        <v>0.1491967167816868</v>
+        <v>0.2289208949724748</v>
       </c>
       <c r="T14">
-        <v>0.1496608096447662</v>
+        <v>0.2307242893708049</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>44.98903266666667</v>
+        <v>63.64001366666667</v>
       </c>
       <c r="H15">
-        <v>134.967098</v>
+        <v>190.920041</v>
       </c>
       <c r="I15">
-        <v>0.3488369270391816</v>
+        <v>0.4959344089323702</v>
       </c>
       <c r="J15">
-        <v>0.3488369270391816</v>
+        <v>0.4969570394110899</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.8355735</v>
+        <v>4.2741545</v>
       </c>
       <c r="N15">
-        <v>3.671147</v>
+        <v>8.548309</v>
       </c>
       <c r="O15">
-        <v>0.009302893606838109</v>
+        <v>0.01731096253429049</v>
       </c>
       <c r="P15">
-        <v>0.006221220856469531</v>
+        <v>0.01160762138918714</v>
       </c>
       <c r="Q15">
-        <v>82.58067615356768</v>
+        <v>272.0072507934448</v>
       </c>
       <c r="R15">
-        <v>495.4840569214061</v>
+        <v>1632.043504760669</v>
       </c>
       <c r="S15">
-        <v>0.003245192818381855</v>
+        <v>0.00858510197249376</v>
       </c>
       <c r="T15">
-        <v>0.002170191566002897</v>
+        <v>0.005768489160175286</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>44.98903266666667</v>
+        <v>63.64001366666667</v>
       </c>
       <c r="H16">
-        <v>134.967098</v>
+        <v>190.920041</v>
       </c>
       <c r="I16">
-        <v>0.3488369270391816</v>
+        <v>0.4959344089323702</v>
       </c>
       <c r="J16">
-        <v>0.3488369270391816</v>
+        <v>0.4969570394110899</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>87.70567066666668</v>
+        <v>104.9290516666667</v>
       </c>
       <c r="N16">
-        <v>263.117012</v>
+        <v>314.787155</v>
       </c>
       <c r="O16">
-        <v>0.4445022348210966</v>
+        <v>0.4249782927033401</v>
       </c>
       <c r="P16">
-        <v>0.4458849081081047</v>
+        <v>0.4274447862635018</v>
       </c>
       <c r="Q16">
-        <v>3945.793282674576</v>
+        <v>6677.68628209704</v>
       </c>
       <c r="R16">
-        <v>35512.13954407119</v>
+        <v>60099.17653887335</v>
       </c>
       <c r="S16">
-        <v>0.15505879365704</v>
+        <v>0.2107613584009188</v>
       </c>
       <c r="T16">
-        <v>0.1555411211575791</v>
+        <v>0.212421695493216</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>77.26852533333333</v>
+        <v>0.7921859999999999</v>
       </c>
       <c r="H17">
-        <v>231.805576</v>
+        <v>1.584372</v>
       </c>
       <c r="I17">
-        <v>0.5991263500559777</v>
+        <v>0.006173353414603005</v>
       </c>
       <c r="J17">
-        <v>0.5991263500559777</v>
+        <v>0.004124055360148531</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.18077166666667</v>
+        <v>11.53121</v>
       </c>
       <c r="N17">
-        <v>33.542315</v>
+        <v>34.59363</v>
       </c>
       <c r="O17">
-        <v>0.0566654123397129</v>
+        <v>0.04670311854310271</v>
       </c>
       <c r="P17">
-        <v>0.05684167636225704</v>
+        <v>0.04697417460197403</v>
       </c>
       <c r="Q17">
-        <v>863.9217387720488</v>
+        <v>9.134863125059999</v>
       </c>
       <c r="R17">
-        <v>7775.29564894844</v>
+        <v>54.80917875035999</v>
       </c>
       <c r="S17">
-        <v>0.03394974166950915</v>
+        <v>0.000288314856330672</v>
       </c>
       <c r="T17">
-        <v>0.0340553460899822</v>
+        <v>0.000193724096555824</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>77.26852533333333</v>
+        <v>0.7921859999999999</v>
       </c>
       <c r="H18">
-        <v>231.805576</v>
+        <v>1.584372</v>
       </c>
       <c r="I18">
-        <v>0.5991263500559777</v>
+        <v>0.006173353414603005</v>
       </c>
       <c r="J18">
-        <v>0.5991263500559777</v>
+        <v>0.004124055360148531</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>36.600522</v>
       </c>
       <c r="O18">
-        <v>0.06183185838481135</v>
+        <v>0.04941252241252041</v>
       </c>
       <c r="P18">
-        <v>0.06202419320830027</v>
+        <v>0.04969930333854504</v>
       </c>
       <c r="Q18">
-        <v>942.6894537900745</v>
+        <v>9.664807040363998</v>
       </c>
       <c r="R18">
-        <v>8484.205084110672</v>
+        <v>57.98884224218399</v>
       </c>
       <c r="S18">
-        <v>0.03704509563127012</v>
+        <v>0.0003050409639594804</v>
       </c>
       <c r="T18">
-        <v>0.0371603284920557</v>
+        <v>0.0002049626783289744</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>77.26852533333333</v>
+        <v>0.7921859999999999</v>
       </c>
       <c r="H19">
-        <v>231.805576</v>
+        <v>1.584372</v>
       </c>
       <c r="I19">
-        <v>0.5991263500559777</v>
+        <v>0.006173353414603005</v>
       </c>
       <c r="J19">
-        <v>0.5991263500559777</v>
+        <v>0.004124055360148531</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>84.38991299999999</v>
+        <v>113.969907</v>
       </c>
       <c r="N19">
-        <v>253.169739</v>
+        <v>341.909721</v>
       </c>
       <c r="O19">
-        <v>0.4276976008475412</v>
+        <v>0.4615951038067463</v>
       </c>
       <c r="P19">
-        <v>0.4290280014648685</v>
+        <v>0.4642741144067919</v>
       </c>
       <c r="Q19">
-        <v>6520.684130518295</v>
+        <v>90.28536474670199</v>
       </c>
       <c r="R19">
-        <v>58686.15717466467</v>
+        <v>541.7121884802119</v>
       </c>
       <c r="S19">
-        <v>0.2562449025234858</v>
+        <v>0.002849589710249406</v>
       </c>
       <c r="T19">
-        <v>0.2570419805894573</v>
+        <v>0.001914692150097542</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>77.26852533333333</v>
+        <v>0.7921859999999999</v>
       </c>
       <c r="H20">
-        <v>231.805576</v>
+        <v>1.584372</v>
       </c>
       <c r="I20">
-        <v>0.5991263500559777</v>
+        <v>0.006173353414603005</v>
       </c>
       <c r="J20">
-        <v>0.5991263500559777</v>
+        <v>0.004124055360148531</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.8355735</v>
+        <v>4.2741545</v>
       </c>
       <c r="N20">
-        <v>3.671147</v>
+        <v>8.548309</v>
       </c>
       <c r="O20">
-        <v>0.009302893606838109</v>
+        <v>0.01731096253429049</v>
       </c>
       <c r="P20">
-        <v>0.006221220856469531</v>
+        <v>0.01160762138918714</v>
       </c>
       <c r="Q20">
-        <v>141.8320574859453</v>
+        <v>3.385925356737</v>
       </c>
       <c r="R20">
-        <v>850.992344915672</v>
+        <v>13.543701426948</v>
       </c>
       <c r="S20">
-        <v>0.005573608691624005</v>
+        <v>0.0001068666896711269</v>
       </c>
       <c r="T20">
-        <v>0.003727297344628714</v>
+        <v>4.787047320865198E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.7921859999999999</v>
+      </c>
+      <c r="H21">
+        <v>1.584372</v>
+      </c>
+      <c r="I21">
+        <v>0.006173353414603005</v>
+      </c>
+      <c r="J21">
+        <v>0.004124055360148531</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>104.9290516666667</v>
+      </c>
+      <c r="N21">
+        <v>314.787155</v>
+      </c>
+      <c r="O21">
+        <v>0.4249782927033401</v>
+      </c>
+      <c r="P21">
+        <v>0.4274447862635018</v>
+      </c>
+      <c r="Q21">
+        <v>83.12332572360999</v>
+      </c>
+      <c r="R21">
+        <v>498.7399543416599</v>
+      </c>
+      <c r="S21">
+        <v>0.00262354119439232</v>
+      </c>
+      <c r="T21">
+        <v>0.001762805961957538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>57.101078</v>
+      </c>
+      <c r="H22">
+        <v>171.303234</v>
+      </c>
+      <c r="I22">
+        <v>0.444977738623016</v>
+      </c>
+      <c r="J22">
+        <v>0.4458952950370734</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>11.53121</v>
+      </c>
+      <c r="N22">
+        <v>34.59363</v>
+      </c>
+      <c r="O22">
+        <v>0.04670311854310271</v>
+      </c>
+      <c r="P22">
+        <v>0.04697417460197403</v>
+      </c>
+      <c r="Q22">
+        <v>658.44452164438</v>
+      </c>
+      <c r="R22">
+        <v>5926.00069479942</v>
+      </c>
+      <c r="S22">
+        <v>0.02078184807595249</v>
+      </c>
+      <c r="T22">
+        <v>0.02094556344327021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>57.101078</v>
+      </c>
+      <c r="H23">
+        <v>171.303234</v>
+      </c>
+      <c r="I23">
+        <v>0.444977738623016</v>
+      </c>
+      <c r="J23">
+        <v>0.4458952950370734</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>12.200174</v>
+      </c>
+      <c r="N23">
+        <v>36.600522</v>
+      </c>
+      <c r="O23">
+        <v>0.04941252241252041</v>
+      </c>
+      <c r="P23">
+        <v>0.04969930333854504</v>
+      </c>
+      <c r="Q23">
+        <v>696.643087187572</v>
+      </c>
+      <c r="R23">
+        <v>6269.787784688147</v>
+      </c>
+      <c r="S23">
+        <v>0.02198747248278243</v>
+      </c>
+      <c r="T23">
+        <v>0.02216068552527755</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>57.101078</v>
+      </c>
+      <c r="H24">
+        <v>171.303234</v>
+      </c>
+      <c r="I24">
+        <v>0.444977738623016</v>
+      </c>
+      <c r="J24">
+        <v>0.4458952950370734</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>113.969907</v>
+      </c>
+      <c r="N24">
+        <v>341.909721</v>
+      </c>
+      <c r="O24">
+        <v>0.4615951038067463</v>
+      </c>
+      <c r="P24">
+        <v>0.4642741144067919</v>
+      </c>
+      <c r="Q24">
+        <v>6507.804549259746</v>
+      </c>
+      <c r="R24">
+        <v>58570.24094333771</v>
+      </c>
+      <c r="S24">
+        <v>0.2053995454513823</v>
+      </c>
+      <c r="T24">
+        <v>0.2070176432214925</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>77.26852533333333</v>
-      </c>
-      <c r="H21">
-        <v>231.805576</v>
-      </c>
-      <c r="I21">
-        <v>0.5991263500559777</v>
-      </c>
-      <c r="J21">
-        <v>0.5991263500559777</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>87.70567066666668</v>
-      </c>
-      <c r="N21">
-        <v>263.117012</v>
-      </c>
-      <c r="O21">
-        <v>0.4445022348210966</v>
-      </c>
-      <c r="P21">
-        <v>0.4458849081081047</v>
-      </c>
-      <c r="Q21">
-        <v>6776.887835784324</v>
-      </c>
-      <c r="R21">
-        <v>60991.99052205892</v>
-      </c>
-      <c r="S21">
-        <v>0.2663130015400887</v>
-      </c>
-      <c r="T21">
-        <v>0.2671413975398538</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>57.101078</v>
+      </c>
+      <c r="H25">
+        <v>171.303234</v>
+      </c>
+      <c r="I25">
+        <v>0.444977738623016</v>
+      </c>
+      <c r="J25">
+        <v>0.4458952950370734</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.2741545</v>
+      </c>
+      <c r="N25">
+        <v>8.548309</v>
+      </c>
+      <c r="O25">
+        <v>0.01731096253429049</v>
+      </c>
+      <c r="P25">
+        <v>0.01160762138918714</v>
+      </c>
+      <c r="Q25">
+        <v>244.058829488551</v>
+      </c>
+      <c r="R25">
+        <v>1464.352976931306</v>
+      </c>
+      <c r="S25">
+        <v>0.007702992961896337</v>
+      </c>
+      <c r="T25">
+        <v>0.005175783764010246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>57.101078</v>
+      </c>
+      <c r="H26">
+        <v>171.303234</v>
+      </c>
+      <c r="I26">
+        <v>0.444977738623016</v>
+      </c>
+      <c r="J26">
+        <v>0.4458952950370734</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>104.9290516666667</v>
+      </c>
+      <c r="N26">
+        <v>314.787155</v>
+      </c>
+      <c r="O26">
+        <v>0.4249782927033401</v>
+      </c>
+      <c r="P26">
+        <v>0.4274447862635018</v>
+      </c>
+      <c r="Q26">
+        <v>5991.561963684363</v>
+      </c>
+      <c r="R26">
+        <v>53924.05767315927</v>
+      </c>
+      <c r="S26">
+        <v>0.1891058796510025</v>
+      </c>
+      <c r="T26">
+        <v>0.1905956190830229</v>
       </c>
     </row>
   </sheetData>
